--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -425,10 +449,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -472,28 +496,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="3">
+      <c r="C12" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -518,28 +542,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -627,10 +651,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -674,28 +698,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -720,28 +744,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -858,10 +882,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -905,28 +929,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3">
+      <c r="A27" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="3">
+      <c r="C27" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -951,28 +975,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="3">
+      <c r="I29" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1118,10 +1142,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1165,28 +1189,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="3">
+      <c r="C36" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1211,28 +1235,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1349,10 +1373,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1396,28 +1420,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="3">
+      <c r="A44" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="3">
+      <c r="C44" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1442,28 +1466,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="3">
+      <c r="I46" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1580,10 +1604,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1627,28 +1651,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="A52" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="3">
+      <c r="C52" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1673,28 +1697,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="3">
+      <c r="I54" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1782,10 +1806,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1829,28 +1853,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1875,28 +1899,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1984,10 +2008,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2031,28 +2055,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2077,28 +2101,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2186,10 +2210,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2233,28 +2257,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2279,28 +2303,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2388,10 +2412,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2435,28 +2459,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2481,28 +2505,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2619,10 +2643,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="3" t="s">
+      <c r="J86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2666,28 +2690,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="3">
+      <c r="A88" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="3">
+      <c r="C88" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2712,28 +2736,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="3">
+      <c r="I90" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2821,10 +2845,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="3" t="s">
+      <c r="J93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2868,28 +2892,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="A95" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="3">
+      <c r="C95" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2914,28 +2938,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="3">
+      <c r="C97" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="3">
+      <c r="D97" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="3">
+      <c r="I97" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3023,10 +3047,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="3" t="s">
+      <c r="J100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3070,28 +3094,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="3">
+      <c r="A102" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="3">
+      <c r="C102" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3116,28 +3140,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="3">
+      <c r="C104" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="3">
+      <c r="D104" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="3">
+      <c r="I104" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3225,10 +3249,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3272,28 +3296,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3318,28 +3342,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3427,10 +3451,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="3" t="s">
+      <c r="J114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3474,28 +3498,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="3">
+      <c r="A116" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="3">
+      <c r="C116" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3520,28 +3544,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="3">
+      <c r="C118" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="3">
+      <c r="D118" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="3">
+      <c r="I118" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3629,10 +3653,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="3" t="s">
+      <c r="J121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3676,28 +3700,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="A123" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="3">
+      <c r="C123" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3722,28 +3746,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="3">
+      <c r="I125" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3831,10 +3855,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3878,28 +3902,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3924,28 +3948,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4091,10 +4115,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3" t="s">
+      <c r="J137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4138,28 +4162,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="3">
+      <c r="C139" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4184,28 +4208,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4293,10 +4317,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4340,28 +4364,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4386,28 +4410,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4548,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4595,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4641,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4755,10 +4779,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="3" t="s">
+      <c r="J160" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4802,28 +4826,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="3">
+      <c r="A162" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="3">
+      <c r="C162" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4848,28 +4872,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="3">
+      <c r="I164" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4957,10 +4981,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="3" t="s">
+      <c r="J167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5004,28 +5028,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="3">
+      <c r="A169" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="3">
+      <c r="C169" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5050,28 +5074,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="3">
+      <c r="C171" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="3">
+      <c r="D171" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="3">
+      <c r="I171" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5188,10 +5212,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="3" t="s">
+      <c r="J175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5235,28 +5259,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="3">
+      <c r="A177" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="3">
+      <c r="C177" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5281,28 +5305,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="3">
+      <c r="I179" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5390,10 +5414,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="3" t="s">
+      <c r="J182" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5437,28 +5461,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="3">
+      <c r="A184" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="3">
+      <c r="C184" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5483,28 +5507,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="3">
+      <c r="C186" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="3">
+      <c r="D186" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="3">
+      <c r="I186" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5592,10 +5616,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="J189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5639,28 +5663,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="3">
+      <c r="C191" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5685,28 +5709,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5794,10 +5818,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="3" t="s">
+      <c r="J196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5841,28 +5865,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="3">
+      <c r="A198" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="3">
+      <c r="C198" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5887,28 +5911,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="3">
+      <c r="C200" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="3">
+      <c r="D200" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="3">
+      <c r="I200" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5996,10 +6020,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="3" t="s">
+      <c r="J203" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6043,28 +6067,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="3">
+      <c r="A205" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="3">
+      <c r="C205" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6089,28 +6113,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="3">
+      <c r="C207" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="3">
+      <c r="D207" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="3">
+      <c r="I207" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6222,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="3" t="s">
+      <c r="J210" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6269,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="3">
+      <c r="A212" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="3">
+      <c r="C212" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6315,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="3">
+      <c r="C214" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="3">
+      <c r="D214" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="3">
+      <c r="I214" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6400,10 +6424,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="3" t="s">
+      <c r="J217" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6447,28 +6471,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="3">
+      <c r="A219" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="3">
+      <c r="B219" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="3">
+      <c r="C219" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="3">
+      <c r="E219" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="3">
+      <c r="F219" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="3">
+      <c r="G219" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="3">
+      <c r="H219" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6493,28 +6517,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="3">
+      <c r="C221" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="3">
+      <c r="D221" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="3">
+      <c r="I221" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6602,10 +6626,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="3" t="s">
+      <c r="J224" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6649,28 +6673,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="3">
+      <c r="A226" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="3">
+      <c r="B226" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="3">
+      <c r="C226" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="3">
+      <c r="E226" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="3">
+      <c r="F226" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="3">
+      <c r="G226" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="3">
+      <c r="H226" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6695,28 +6719,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="3">
+      <c r="C228" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="3">
+      <c r="D228" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="3">
+      <c r="I228" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6833,10 +6857,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="3" t="s">
+      <c r="J232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6880,28 +6904,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="3">
+      <c r="A234" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="3">
+      <c r="C234" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6926,28 +6950,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="3">
+      <c r="C236" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="3">
+      <c r="D236" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="3">
+      <c r="I236" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7035,10 +7059,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="3" t="s">
+      <c r="J239" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7082,28 +7106,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="3">
+      <c r="A241" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="3">
+      <c r="C241" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7128,28 +7152,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="3">
+      <c r="B243" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="3">
+      <c r="C243" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="3">
+      <c r="D243" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="3">
+      <c r="E243" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="3">
+      <c r="F243" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="3">
+      <c r="G243" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="3">
+      <c r="H243" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="3">
+      <c r="I243" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7237,10 +7261,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="3" t="s">
+      <c r="J246" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7284,28 +7308,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="3">
+      <c r="A248" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="3">
+      <c r="B248" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="3">
+      <c r="C248" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="3">
+      <c r="E248" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="3">
+      <c r="F248" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="3">
+      <c r="G248" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="3">
+      <c r="H248" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7330,28 +7354,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="3">
+      <c r="B250" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="3">
+      <c r="C250" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="3">
+      <c r="D250" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="3">
+      <c r="E250" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="3">
+      <c r="F250" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="3">
+      <c r="G250" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="3">
+      <c r="H250" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="3">
+      <c r="I250" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7439,10 +7463,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="3" t="s">
+      <c r="J253" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7486,28 +7510,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="3">
+      <c r="A255" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="3">
+      <c r="B255" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="3">
+      <c r="C255" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="3">
+      <c r="E255" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="3">
+      <c r="F255" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="3">
+      <c r="G255" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="3">
+      <c r="H255" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7532,28 +7556,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="3">
+      <c r="B257" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="3">
+      <c r="C257" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="3">
+      <c r="D257" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="3">
+      <c r="E257" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="3">
+      <c r="F257" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="3">
+      <c r="G257" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="3">
+      <c r="H257" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="3">
+      <c r="I257" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7641,10 +7665,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="3" t="s">
+      <c r="J260" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7688,28 +7712,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="3">
+      <c r="A262" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="3">
+      <c r="B262" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="3">
+      <c r="C262" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="3">
+      <c r="E262" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="3">
+      <c r="F262" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="3">
+      <c r="G262" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="3">
+      <c r="H262" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7734,28 +7758,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="3">
+      <c r="B264" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="3">
+      <c r="C264" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="3">
+      <c r="D264" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="3">
+      <c r="E264" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="3">
+      <c r="F264" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="3">
+      <c r="G264" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="3">
+      <c r="H264" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="3">
+      <c r="I264" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7872,10 +7896,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7919,28 +7943,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7965,28 +7989,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8103,10 +8127,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="3" t="s">
+      <c r="J276" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8150,28 +8174,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="3">
+      <c r="A278" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="3">
+      <c r="B278" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="3">
+      <c r="C278" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="3">
+      <c r="E278" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="3">
+      <c r="F278" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="3">
+      <c r="G278" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="3">
+      <c r="H278" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8196,28 +8220,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="3">
+      <c r="B280" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="3">
+      <c r="C280" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="3">
+      <c r="D280" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="3">
+      <c r="E280" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="3">
+      <c r="F280" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="3">
+      <c r="G280" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="3">
+      <c r="H280" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="3">
+      <c r="I280" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8363,10 +8387,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="3" t="s">
+      <c r="J285" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8410,28 +8434,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="3">
+      <c r="A287" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="3">
+      <c r="B287" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="3">
+      <c r="C287" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="3">
+      <c r="E287" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="3">
+      <c r="F287" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="3">
+      <c r="G287" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="3">
+      <c r="H287" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8456,28 +8480,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="3">
+      <c r="B289" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="3">
+      <c r="C289" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="3">
+      <c r="D289" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="3">
+      <c r="E289" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="3">
+      <c r="F289" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="3">
+      <c r="G289" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="3">
+      <c r="H289" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="3">
+      <c r="I289" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8594,10 +8618,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="3" t="s">
+      <c r="J293" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8641,28 +8665,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="3">
+      <c r="A295" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="3">
+      <c r="B295" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="3">
+      <c r="C295" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="3">
+      <c r="E295" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="3">
+      <c r="F295" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="3">
+      <c r="G295" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="3">
+      <c r="H295" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8687,28 +8711,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="3">
+      <c r="C297" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="3">
+      <c r="D297" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="3">
+      <c r="I297" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8767,10 +8791,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="3" t="s">
+      <c r="J299" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8814,28 +8838,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="3">
+      <c r="A301" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="3">
+      <c r="B301" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="3">
+      <c r="C301" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="3">
+      <c r="E301" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="3">
+      <c r="F301" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="3">
+      <c r="G301" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="3">
+      <c r="H301" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8860,28 +8884,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="3">
+      <c r="B303" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="3">
+      <c r="C303" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="3">
+      <c r="D303" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="3">
+      <c r="E303" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="3">
+      <c r="F303" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="3">
+      <c r="G303" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="3">
+      <c r="H303" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="3">
+      <c r="I303" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8969,10 +8993,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="3" t="s">
+      <c r="J306" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
